--- a/data/processed/samlet_data_fra_2017.xlsx
+++ b/data/processed/samlet_data_fra_2017.xlsx
@@ -46946,12 +46946,24 @@
       <c r="B594" t="n">
         <v>7</v>
       </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr"/>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr"/>
-      <c r="G594" t="inlineStr"/>
-      <c r="H594" t="inlineStr"/>
+      <c r="C594" t="n">
+        <v>31106103</v>
+      </c>
+      <c r="D594" t="n">
+        <v>59522228.6</v>
+      </c>
+      <c r="E594" t="n">
+        <v>8319571</v>
+      </c>
+      <c r="F594" t="n">
+        <v>430889</v>
+      </c>
+      <c r="G594" t="n">
+        <v>13.97725050906444</v>
+      </c>
+      <c r="H594" t="n">
+        <v>10.99819449371767</v>
+      </c>
       <c r="I594" t="n">
         <v>213</v>
       </c>
@@ -46997,7 +47009,9 @@
       <c r="W594" t="n">
         <v>0</v>
       </c>
-      <c r="X594" t="inlineStr"/>
+      <c r="X594" t="n">
+        <v>0</v>
+      </c>
       <c r="Y594" t="inlineStr">
         <is>
           <t>2021-04</t>
@@ -47012,12 +47026,24 @@
       <c r="B595" t="n">
         <v>7</v>
       </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr"/>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr"/>
-      <c r="H595" t="inlineStr"/>
+      <c r="C595" t="n">
+        <v>33037362</v>
+      </c>
+      <c r="D595" t="n">
+        <v>62901907.857</v>
+      </c>
+      <c r="E595" t="n">
+        <v>10688303</v>
+      </c>
+      <c r="F595" t="n">
+        <v>472632</v>
+      </c>
+      <c r="G595" t="n">
+        <v>16.99201719651904</v>
+      </c>
+      <c r="H595" t="n">
+        <v>11.6226732921286</v>
+      </c>
       <c r="I595" t="n">
         <v>190.52</v>
       </c>
@@ -47063,7 +47089,9 @@
       <c r="W595" t="n">
         <v>146842</v>
       </c>
-      <c r="X595" t="inlineStr"/>
+      <c r="X595" t="n">
+        <v>0.4444725338542466</v>
+      </c>
       <c r="Y595" t="inlineStr">
         <is>
           <t>2021-05</t>
@@ -50620,12 +50648,24 @@
       <c r="B640" t="n">
         <v>7</v>
       </c>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr"/>
-      <c r="E640" t="inlineStr"/>
-      <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr"/>
+      <c r="C640" t="n">
+        <v>40260013</v>
+      </c>
+      <c r="D640" t="n">
+        <v>76435048.68000001</v>
+      </c>
+      <c r="E640" t="n">
+        <v>10189065</v>
+      </c>
+      <c r="F640" t="n">
+        <v>554117</v>
+      </c>
+      <c r="G640" t="n">
+        <v>13.33035718032593</v>
+      </c>
+      <c r="H640" t="n">
+        <v>14.12325363636364</v>
+      </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
@@ -50665,7 +50705,9 @@
       <c r="W640" t="n">
         <v>0</v>
       </c>
-      <c r="X640" t="inlineStr"/>
+      <c r="X640" t="n">
+        <v>0</v>
+      </c>
       <c r="Y640" t="inlineStr">
         <is>
           <t>2025-02</t>
